--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/54.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/54.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04509143758781246</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.555624232699447</v>
+        <v>-1.559780430189242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01863571352679972</v>
+        <v>0.01156679365303833</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1130231158743963</v>
+        <v>-0.1360950881544218</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03736454517718889</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.549863322715487</v>
+        <v>-1.563658813304126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0311649057323532</v>
+        <v>0.02181995420919101</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06935352937303003</v>
+        <v>-0.097191631552354</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.03631594802392946</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.635868514512917</v>
+        <v>-1.639867310090581</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03095533290889975</v>
+        <v>-0.03795814397956651</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07602422240910234</v>
+        <v>-0.1040716691315593</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04337256991063632</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.786114148707992</v>
+        <v>-1.780861646900212</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0990363819625184</v>
+        <v>-0.09272771332434525</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08047397446501939</v>
+        <v>-0.1096987874902093</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.0554404230952425</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.868904406450166</v>
+        <v>-1.836567757622164</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1377950288054265</v>
+        <v>-0.1219462302730499</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0805148989621732</v>
+        <v>-0.1082711521471895</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.07000279105224075</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.688862590288868</v>
+        <v>-1.658628831006925</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1679091626341513</v>
+        <v>-0.1294133769845004</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08738706644577202</v>
+        <v>-0.1073031303875896</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08497407350835873</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331188781240985</v>
+        <v>-1.329110288991308</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1769471804286598</v>
+        <v>-0.1398853261985138</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03604728476630747</v>
+        <v>-0.06368233847898365</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09694540792074056</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7847216097173731</v>
+        <v>-0.8162460646787832</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1320955055671967</v>
+        <v>-0.08125311393006322</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05382740476052005</v>
+        <v>-0.07209232264409322</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1013331783532513</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2209898094617744</v>
+        <v>-0.2774797817061348</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1590852114401397</v>
+        <v>-0.08991966321194482</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03510782363121142</v>
+        <v>0.004620647270738395</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09286650851650878</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3834366811559323</v>
+        <v>0.2999648731342355</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1730861115241093</v>
+        <v>-0.1148285158065282</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1073332650312148</v>
+        <v>0.07823909559309286</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06434636333911549</v>
       </c>
       <c r="E12" t="n">
-        <v>1.063312204334066</v>
+        <v>0.9571461886214561</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.286887693994149</v>
+        <v>-0.1968538002557496</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1614401723259259</v>
+        <v>0.1443054001714466</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01128256062883101</v>
       </c>
       <c r="E13" t="n">
-        <v>1.783082816160687</v>
+        <v>1.644285810044393</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4563182602491976</v>
+        <v>-0.3575186540242747</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2718009489968023</v>
+        <v>0.2494545995316965</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06618829081629918</v>
       </c>
       <c r="E14" t="n">
-        <v>2.459638733011998</v>
+        <v>2.30915935697741</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7024067057498323</v>
+        <v>-0.5981121987724488</v>
       </c>
       <c r="G14" t="n">
-        <v>0.38126768280678</v>
+        <v>0.3594171493648838</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1620999104566747</v>
       </c>
       <c r="E15" t="n">
-        <v>3.181306037879787</v>
+        <v>3.014601672742831</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.007234396819166</v>
+        <v>-0.8951634483729966</v>
       </c>
       <c r="G15" t="n">
-        <v>0.529981009387269</v>
+        <v>0.502912602558261</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.26559528610348</v>
       </c>
       <c r="E16" t="n">
-        <v>3.865451874934009</v>
+        <v>3.691782475185298</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.24425727919067</v>
+        <v>-1.131526029723114</v>
       </c>
       <c r="G16" t="n">
-        <v>0.691917670605805</v>
+        <v>0.6639945713939308</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3653858435549868</v>
       </c>
       <c r="E17" t="n">
-        <v>4.542730266561997</v>
+        <v>4.354461839463221</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.555953202695799</v>
+        <v>-1.424422655852989</v>
       </c>
       <c r="G17" t="n">
-        <v>0.863240207844657</v>
+        <v>0.8350652655733748</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.456649926789158</v>
       </c>
       <c r="E18" t="n">
-        <v>5.23830033439862</v>
+        <v>5.021002272645696</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.761647595486494</v>
+        <v>-1.636353312402277</v>
       </c>
       <c r="G18" t="n">
-        <v>1.020450089641927</v>
+        <v>0.9925443046403872</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5387047807842441</v>
       </c>
       <c r="E19" t="n">
-        <v>5.714867677773951</v>
+        <v>5.502932299167298</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.007530631491799</v>
+        <v>-1.867266639554452</v>
       </c>
       <c r="G19" t="n">
-        <v>1.185881073309751</v>
+        <v>1.15874813169677</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6108336661589997</v>
       </c>
       <c r="E20" t="n">
-        <v>6.166269603437925</v>
+        <v>5.934618061317861</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.15549629898967</v>
+        <v>-2.017893973386443</v>
       </c>
       <c r="G20" t="n">
-        <v>1.312978395297417</v>
+        <v>1.286311363344341</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6711767066374855</v>
       </c>
       <c r="E21" t="n">
-        <v>6.4479119928505</v>
+        <v>6.226546665688136</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.346095848407092</v>
+        <v>-2.216385654678066</v>
       </c>
       <c r="G21" t="n">
-        <v>1.424884858745411</v>
+        <v>1.402126116270525</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7191890604281288</v>
       </c>
       <c r="E22" t="n">
-        <v>6.782159675316065</v>
+        <v>6.554244854589968</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.434415635322395</v>
+        <v>-2.316297305412188</v>
       </c>
       <c r="G22" t="n">
-        <v>1.515411420468778</v>
+        <v>1.497558895594985</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7555338375283113</v>
       </c>
       <c r="E23" t="n">
-        <v>6.903747930379179</v>
+        <v>6.678825320002675</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.518195951091867</v>
+        <v>-2.406165927142851</v>
       </c>
       <c r="G23" t="n">
-        <v>1.613282355412133</v>
+        <v>1.598576294761821</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7825499233224628</v>
       </c>
       <c r="E24" t="n">
-        <v>7.024952124776696</v>
+        <v>6.812451673305497</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.56102737241114</v>
+        <v>-2.46005325877014</v>
       </c>
       <c r="G24" t="n">
-        <v>1.617037965035556</v>
+        <v>1.602827720408454</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8019041312535107</v>
       </c>
       <c r="E25" t="n">
-        <v>7.106336783443548</v>
+        <v>6.891565022380312</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.573161485817247</v>
+        <v>-2.468965355034945</v>
       </c>
       <c r="G25" t="n">
-        <v>1.660942080385996</v>
+        <v>1.648338909281742</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8144639965801485</v>
       </c>
       <c r="E26" t="n">
-        <v>7.07556470962212</v>
+        <v>6.883592615530924</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.610696332793344</v>
+        <v>-2.493412233017426</v>
       </c>
       <c r="G26" t="n">
-        <v>1.666170971906958</v>
+        <v>1.672807036522361</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8210789118953163</v>
       </c>
       <c r="E27" t="n">
-        <v>6.994113942152174</v>
+        <v>6.816756615602254</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.493438204332928</v>
+        <v>-2.397602476113414</v>
       </c>
       <c r="G27" t="n">
-        <v>1.632732509694046</v>
+        <v>1.633562017770971</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8218804779023479</v>
       </c>
       <c r="E28" t="n">
-        <v>6.842986070239609</v>
+        <v>6.690414822792812</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.399104877364696</v>
+        <v>-2.328182723797129</v>
       </c>
       <c r="G28" t="n">
-        <v>1.558560006640993</v>
+        <v>1.577884239393202</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8192198088294658</v>
       </c>
       <c r="E29" t="n">
-        <v>6.664227866671733</v>
+        <v>6.531706474792064</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.317807576759076</v>
+        <v>-2.245875689925195</v>
       </c>
       <c r="G29" t="n">
-        <v>1.499317074953478</v>
+        <v>1.526461034700308</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8136867979940804</v>
       </c>
       <c r="E30" t="n">
-        <v>6.452270451797382</v>
+        <v>6.347369947458297</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.264562444933277</v>
+        <v>-2.199832482588907</v>
       </c>
       <c r="G30" t="n">
-        <v>1.433455392860893</v>
+        <v>1.458403595933509</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.804534253306692</v>
       </c>
       <c r="E31" t="n">
-        <v>6.147222398051066</v>
+        <v>6.066319389235332</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.043926675633635</v>
+        <v>-2.01323172874915</v>
       </c>
       <c r="G31" t="n">
-        <v>1.353414946523632</v>
+        <v>1.379002201359496</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7912682166540583</v>
       </c>
       <c r="E32" t="n">
-        <v>5.863787200859329</v>
+        <v>5.805817650640947</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.905227258702861</v>
+        <v>-1.888262480613482</v>
       </c>
       <c r="G32" t="n">
-        <v>1.256123250616915</v>
+        <v>1.294913377842249</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7725610738525145</v>
       </c>
       <c r="E33" t="n">
-        <v>5.480201889036595</v>
+        <v>5.447884128438049</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.827555711143157</v>
+        <v>-1.820351425624964</v>
       </c>
       <c r="G33" t="n">
-        <v>1.173608446220969</v>
+        <v>1.216125850725543</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7484616689846074</v>
       </c>
       <c r="E34" t="n">
-        <v>5.146956856751299</v>
+        <v>5.14043569553175</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.747409805524769</v>
+        <v>-1.740039460989278</v>
       </c>
       <c r="G34" t="n">
-        <v>1.04918223468215</v>
+        <v>1.099187248146752</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.71909936982754</v>
       </c>
       <c r="E35" t="n">
-        <v>4.721293291758832</v>
+        <v>4.736070183269603</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.69253084185106</v>
+        <v>-1.689633072648745</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9769300349570844</v>
+        <v>1.025811198769077</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6849388433280598</v>
       </c>
       <c r="E36" t="n">
-        <v>4.241908454156373</v>
+        <v>4.271980089468823</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.598169969548205</v>
+        <v>-1.608092586088884</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9030833538621413</v>
+        <v>0.9589877909933779</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6487566398437915</v>
       </c>
       <c r="E37" t="n">
-        <v>3.845543681087798</v>
+        <v>3.898953297911773</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.563805197082407</v>
+        <v>-1.573106863079734</v>
       </c>
       <c r="G37" t="n">
-        <v>0.827900330533214</v>
+        <v>0.8802836868901009</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6130419081949194</v>
       </c>
       <c r="E38" t="n">
-        <v>3.478622509702273</v>
+        <v>3.552472338835459</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.471769151021714</v>
+        <v>-1.482585810423292</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7272780101658249</v>
+        <v>0.7856095847821072</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5796050447521894</v>
       </c>
       <c r="E39" t="n">
-        <v>3.030943139260174</v>
+        <v>3.123882672296495</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.443927113794586</v>
+        <v>-1.456598754730618</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6699412156342048</v>
+        <v>0.7219940279756185</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5493446795776954</v>
       </c>
       <c r="E40" t="n">
-        <v>2.599221174669822</v>
+        <v>2.713035349292832</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.436448948949287</v>
+        <v>-1.450777245010487</v>
       </c>
       <c r="G40" t="n">
-        <v>0.596006389468469</v>
+        <v>0.6505870765186915</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5209279963392026</v>
       </c>
       <c r="E41" t="n">
-        <v>2.251340912594672</v>
+        <v>2.364684455500413</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.396997733693006</v>
+        <v>-1.416872086128109</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5420600321241305</v>
+        <v>0.5980604844217663</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4944902007164227</v>
       </c>
       <c r="E42" t="n">
-        <v>1.871168074226916</v>
+        <v>1.991465633610564</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.365096301152045</v>
+        <v>-1.385052502581456</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4797603553030492</v>
+        <v>0.5334753318365565</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4701158212684055</v>
       </c>
       <c r="E43" t="n">
-        <v>1.635232052058671</v>
+        <v>1.751943995883996</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.349545779243154</v>
+        <v>-1.362352785823618</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4027136933345019</v>
+        <v>0.457752419949023</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.448038095880428</v>
       </c>
       <c r="E44" t="n">
-        <v>1.434173145580206</v>
+        <v>1.537792398354552</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.348321979376343</v>
+        <v>-1.360812608113425</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3425232021359635</v>
+        <v>0.390507175048815</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.427839493983053</v>
       </c>
       <c r="E45" t="n">
-        <v>1.209478767976291</v>
+        <v>1.316434941287794</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.276347594026187</v>
+        <v>-1.289803883494187</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2772738134815648</v>
+        <v>0.3318182980919976</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4088765247074612</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9844428282230526</v>
+        <v>1.092933670177824</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.218101016442455</v>
+        <v>-1.22923956275434</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2483276018408452</v>
+        <v>0.2948902354871621</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3921280865922065</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8588313802858939</v>
+        <v>0.965652187952965</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.159506580632916</v>
+        <v>-1.176504413123842</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1684115030141667</v>
+        <v>0.2191153809686257</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3770375962839135</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7110309847957593</v>
+        <v>0.8008240536085997</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.085344308704152</v>
+        <v>-1.102581392101516</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1208792735891285</v>
+        <v>0.1609585224748079</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3629940334250534</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5412053397412642</v>
+        <v>0.6360557319908436</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.033508711001478</v>
+        <v>-1.04382168428424</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07172423045002932</v>
+        <v>0.1141991364383284</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.34955666348719</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4666975706153748</v>
+        <v>0.5569596971263627</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9841521934148522</v>
+        <v>-0.9877393829922965</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06857619220742794</v>
+        <v>0.09977482521072888</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3364506216357106</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3489735324950538</v>
+        <v>0.437740340840806</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9675809201057985</v>
+        <v>-0.9687370371503939</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06953634387142137</v>
+        <v>0.09085958090768177</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3248143604559044</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2344384571144879</v>
+        <v>0.3009265988173503</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9799896998485725</v>
+        <v>-0.970278788879708</v>
       </c>
       <c r="G52" t="n">
-        <v>0.005757089076317491</v>
+        <v>0.03335908838744635</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3151282289759602</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1601589207611872</v>
+        <v>0.2342637409920235</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9272750124666519</v>
+        <v>-0.9362091449991545</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02081258197155857</v>
+        <v>0.04023440390928776</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3075470397560657</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08796495974360981</v>
+        <v>0.1342647321966695</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9077792116302216</v>
+        <v>-0.9059564974877553</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01485311729799372</v>
+        <v>0.001782690795033254</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3018927811958013</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0602354648836556</v>
+        <v>0.08565744771178301</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9285657081461184</v>
+        <v>-0.9194623685580759</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.02944584857157239</v>
+        <v>-0.01166258053911722</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.297815395840582</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.009820978167195417</v>
+        <v>0.009042066982472027</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9468219689245244</v>
+        <v>-0.9311179801513075</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05766014132088722</v>
+        <v>-0.04451550763890517</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2958700091183391</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.09981552142756224</v>
+        <v>-0.08606803842212203</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9852091472548056</v>
+        <v>-0.9621253698313704</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09266947461685712</v>
+        <v>-0.08197873674498285</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2961901455684662</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1309181392644638</v>
+        <v>-0.1239027360408267</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9907803879346494</v>
+        <v>-0.9623071690398807</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1159539394782582</v>
+        <v>-0.1075313631601782</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2984612833552782</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1972457310169535</v>
+        <v>-0.1959534613183657</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9925204660732473</v>
+        <v>-0.968944020664845</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1219226199862304</v>
+        <v>-0.1195175187688829</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3021235386090026</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2635056399472273</v>
+        <v>-0.2721753372673514</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.042605754513035</v>
+        <v>-1.00814654089996</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1271751217940108</v>
+        <v>-0.1275922368611555</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3052201111440341</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3289061344372708</v>
+        <v>-0.3466516260108148</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.02197823392839</v>
+        <v>-0.988980497069442</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1635396855534206</v>
+        <v>-0.1649405625713782</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3063246030406434</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4605161692457065</v>
+        <v>-0.4725054728926539</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.070718523029026</v>
+        <v>-1.026410671773972</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1880487372911936</v>
+        <v>-0.1868115582618513</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3050184405082151</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5227890877417256</v>
+        <v>-0.5266501566462762</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.115142064689495</v>
+        <v>-1.057478661190205</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2229132608280038</v>
+        <v>-0.221312483381641</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3009316835623563</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.661631740412538</v>
+        <v>-0.6676995841251522</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.160409280598982</v>
+        <v>-1.099011516734406</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2771980322834219</v>
+        <v>-0.2710625057485919</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2947263026441607</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8255154632841231</v>
+        <v>-0.830899395688532</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.23480608137682</v>
+        <v>-1.165782981879103</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3449186309582628</v>
+        <v>-0.3343427964822434</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2866316190237386</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.941038235663305</v>
+        <v>-0.9419448706771743</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.264903688004771</v>
+        <v>-1.194385270341818</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.37414029594521</v>
+        <v>-0.367052487841993</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2775643571851204</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.042456222696512</v>
+        <v>-1.032856280075699</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.33550238064291</v>
+        <v>-1.256108856164503</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4503779120854088</v>
+        <v>-0.4297708537493402</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2690199004222683</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.167257837795761</v>
+        <v>-1.138474537134096</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.412065818741218</v>
+        <v>-1.321869014023764</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4532347567905696</v>
+        <v>-0.4472676503017187</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2624300247388061</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.353385598889568</v>
+        <v>-1.304362773356658</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.4741734652295</v>
+        <v>-1.379497002092825</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.490806593216017</v>
+        <v>-0.4814726598267039</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.2589746312979895</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.418140745539878</v>
+        <v>-1.363473487437984</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.575907043096528</v>
+        <v>-1.469735518316993</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5370481269615885</v>
+        <v>-0.5211804401997564</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2579330042809805</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.485862131224279</v>
+        <v>-1.424187339994355</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.629670814222795</v>
+        <v>-1.51039321922975</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6041816165041842</v>
+        <v>-0.5797182113209289</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2596755075128377</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.564234904302523</v>
+        <v>-1.499449851288907</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.671759298516815</v>
+        <v>-1.556349068504806</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6063726511210348</v>
+        <v>-0.5730884427820104</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2635961698063641</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.648900605827726</v>
+        <v>-1.556146807047719</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.673959777248393</v>
+        <v>-1.561252138067658</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6425152781843412</v>
+        <v>-0.6034906221099332</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2688680213972714</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.709624689508385</v>
+        <v>-1.607215070428759</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.702229160666954</v>
+        <v>-1.593488049671896</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6458962712568951</v>
+        <v>-0.6087305317647432</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2752837424207956</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.723461104594179</v>
+        <v>-1.607921805014223</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.685162858344251</v>
+        <v>-1.581495597986706</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6665930486828778</v>
+        <v>-0.6288181637907826</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2819775404641635</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.632514279765425</v>
+        <v>-1.521254738176286</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.763378229510364</v>
+        <v>-1.650077185120898</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.650848135412507</v>
+        <v>-0.6116204308714512</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2892455547062332</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.556482073120556</v>
+        <v>-1.461516777475122</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.768525272037017</v>
+        <v>-1.658256575484737</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6248406174712557</v>
+        <v>-0.5863149254583001</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2973222049555504</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.384862046267778</v>
+        <v>-1.289667730840194</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.70423367401793</v>
+        <v>-1.601930301228992</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5829056000415629</v>
+        <v>-0.5462388246108633</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3065980214519234</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.255953028271494</v>
+        <v>-1.166200883955808</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.665861448869301</v>
+        <v>-1.573599531064701</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6028987909203242</v>
+        <v>-0.5547479719806149</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3174169021056825</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.064383096065791</v>
+        <v>-0.9831094057469905</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.620095268898363</v>
+        <v>-1.535879736841851</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5903318222558595</v>
+        <v>-0.5416993534650322</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3290248936415718</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.9179347830008536</v>
+        <v>-0.8372182954509937</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.571599739771088</v>
+        <v>-1.49784356477562</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.552440459948788</v>
+        <v>-0.5077272987699993</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3399289657361046</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6823568501827042</v>
+        <v>-0.6218405370260567</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.5565111924743</v>
+        <v>-1.488245196173928</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4950643149391353</v>
+        <v>-0.4578576509498297</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3481020253167286</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4650320301047182</v>
+        <v>-0.4119230509329117</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.431521482090055</v>
+        <v>-1.387518203534973</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4079738369575683</v>
+        <v>-0.373354860403681</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.351720503226474</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2617222762827936</v>
+        <v>-0.2177646442822293</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.378556525667848</v>
+        <v>-1.352211380625077</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3834820994301296</v>
+        <v>-0.3504513081696347</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3502157670013012</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.06347299393585067</v>
+        <v>-0.02357633126824213</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.244244687037699</v>
+        <v>-1.226294572978386</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3651306104948849</v>
+        <v>-0.3247743342438565</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3428361095138966</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2122731198483316</v>
+        <v>0.2425336374553373</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.124424055447806</v>
+        <v>-1.117400782128562</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3046064272426308</v>
+        <v>-0.2611351671505484</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3305913687116077</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4550309408882941</v>
+        <v>0.4777220005409648</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9793821284677505</v>
+        <v>-0.9836973018887963</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2329633729175087</v>
+        <v>-0.195918832897697</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3148569343149607</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6229268385000746</v>
+        <v>0.6485707580243054</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8249315021901205</v>
+        <v>-0.8334005120722788</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2120005862600262</v>
+        <v>-0.1725918695200208</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2972152909688213</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8149855036429419</v>
+        <v>0.8335054126241658</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7153372728313175</v>
+        <v>-0.7185089213607384</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1435134402731119</v>
+        <v>-0.1133331976412925</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2787038595180518</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9586509509014196</v>
+        <v>0.9722914006066113</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5080106222118335</v>
+        <v>-0.5292882126935762</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1271861399278599</v>
+        <v>-0.09535002918043219</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2581266658963295</v>
       </c>
       <c r="E91" t="n">
-        <v>1.08644241532158</v>
+        <v>1.094062241887797</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3110079630089607</v>
+        <v>-0.3318684384235587</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1511757653556037</v>
+        <v>-0.1160814350270836</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2346902550776021</v>
       </c>
       <c r="E92" t="n">
-        <v>1.153415354913803</v>
+        <v>1.156354048613271</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1742020910811115</v>
+        <v>-0.1937970551221837</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1119968554073083</v>
+        <v>-0.07787841693399455</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.206218509535961</v>
       </c>
       <c r="E93" t="n">
-        <v>1.177574974406647</v>
+        <v>1.186858539184078</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.07329172521452434</v>
+        <v>-0.09249790653263534</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1067034291023741</v>
+        <v>-0.07502944232444031</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1717936202477897</v>
       </c>
       <c r="E94" t="n">
-        <v>1.175377643713311</v>
+        <v>1.174423788125803</v>
       </c>
       <c r="F94" t="n">
-        <v>0.08670889248481187</v>
+        <v>0.06071396669653101</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06394992172960477</v>
+        <v>-0.03756778723748394</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1324118239116541</v>
       </c>
       <c r="E95" t="n">
-        <v>1.195462127701108</v>
+        <v>1.18780452467598</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1721057258918594</v>
+        <v>0.1428714687519417</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09801326953367295</v>
+        <v>-0.07188140408183893</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09172268471790269</v>
       </c>
       <c r="E96" t="n">
-        <v>1.113462027557828</v>
+        <v>1.107639730828136</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2626700640741371</v>
+        <v>0.2255153427158343</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1169093690848877</v>
+        <v>-0.09758828437092176</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.05483352723691241</v>
       </c>
       <c r="E97" t="n">
-        <v>1.068528503702057</v>
+        <v>1.058653107735016</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3143183535013765</v>
+        <v>0.2741824399273303</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08436652375199599</v>
+        <v>-0.06405695502985322</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02518577283561902</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9416342301810379</v>
+        <v>0.9391268177208059</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2913549885407208</v>
+        <v>0.2546992312438704</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.139907362466212</v>
+        <v>-0.1206460904788555</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.005405526115005746</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9182128256560836</v>
+        <v>0.907572456396091</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2593032371736749</v>
+        <v>0.2326787037368737</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.124208095750359</v>
+        <v>-0.1069096256072644</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.009469191754800599</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8560123120396443</v>
+        <v>0.8496092022541931</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2553304129115119</v>
+        <v>0.2258364426165796</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.122988230931351</v>
+        <v>-0.1080869919099973</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02386918357028995</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7990469860206512</v>
+        <v>0.791837978445094</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2204737594703082</v>
+        <v>0.2001342843848607</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1070024927354212</v>
+        <v>-0.09422775354694479</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04718031749987933</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7928642389121821</v>
+        <v>0.7806624426838591</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1827744274960355</v>
+        <v>0.1691701802306336</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0882590730389726</v>
+        <v>-0.07741250727408955</v>
       </c>
     </row>
   </sheetData>
